--- a/Russia AA22-011A.xlsx
+++ b/Russia AA22-011A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5608b4b598de49cc/Security/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1315" documentId="8_{DBEC3AA0-DE57-0143-9609-1D95D83198EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0644AD62-7773-4149-A4E9-D87D7F1FCDE7}"/>
+  <xr:revisionPtr revIDLastSave="1322" documentId="8_{DBEC3AA0-DE57-0143-9609-1D95D83198EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0007C6D6-8BE4-4C43-8025-C4FC68C8AAA4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{5A1058CE-B585-FA43-901C-A336E5DB042D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{5A1058CE-B585-FA43-901C-A336E5DB042D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -138,10 +138,6 @@
     <t>Repeatable</t>
   </si>
   <si>
-    <t>Target
-CMMI</t>
-  </si>
-  <si>
     <t>Absent</t>
   </si>
   <si>
@@ -738,66 +734,70 @@
     <t>If it is possible to inspect HTTPS traffic, the captures can be analysed for connections that appear to be domain fronting.</t>
   </si>
   <si>
+    <t>Reconnaissance</t>
+  </si>
+  <si>
+    <t>Reconnaisance / Initial Access</t>
+  </si>
+  <si>
+    <t>Initial Access / Persistence / Privilege Escalation</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Jun-22</t>
+  </si>
+  <si>
+    <t>Sep-22</t>
+  </si>
+  <si>
+    <t>Dec-22</t>
+  </si>
+  <si>
+    <t>Mar-23</t>
+  </si>
+  <si>
+    <t>There is no evidence the mitigation is in place.</t>
+  </si>
+  <si>
+    <t>The mitigation and supporting processes are ad hoc and informal. The processes rely on individuals and are not measurable.</t>
+  </si>
+  <si>
+    <t>Some processes have been established, documented and are repeatable.</t>
+  </si>
+  <si>
+    <t>Processes are formalised and standardised. There is a consistent approach across the organisation.</t>
+  </si>
+  <si>
+    <t>Processes are measured, refined and adapted to increase effectiveness and efficiency as appropriate.</t>
+  </si>
+  <si>
+    <t>Base
+Maturity</t>
+  </si>
+  <si>
+    <t>Q2 2022 
+Maturity</t>
+  </si>
+  <si>
     <t>Q3 2022
-CMMI</t>
+Maturity</t>
   </si>
   <si>
     <t>Q4 2022
-CMMI</t>
+Maturity</t>
   </si>
   <si>
     <t>Q1 2023
-CMMI</t>
-  </si>
-  <si>
-    <t>Reconnaissance</t>
-  </si>
-  <si>
-    <t>Base
-CMMI</t>
-  </si>
-  <si>
-    <t>Q2 2022 
-CMMI</t>
-  </si>
-  <si>
-    <t>Reconnaisance / Initial Access</t>
-  </si>
-  <si>
-    <t>Initial Access / Persistence / Privilege Escalation</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Jun-22</t>
-  </si>
-  <si>
-    <t>Sep-22</t>
-  </si>
-  <si>
-    <t>Dec-22</t>
-  </si>
-  <si>
-    <t>Mar-23</t>
-  </si>
-  <si>
-    <t>There is no evidence the mitigation is in place.</t>
-  </si>
-  <si>
-    <t>The mitigation and supporting processes are ad hoc and informal. The processes rely on individuals and are not measurable.</t>
-  </si>
-  <si>
-    <t>Some processes have been established, documented and are repeatable.</t>
-  </si>
-  <si>
-    <t>Processes are formalised and standardised. There is a consistent approach across the organisation.</t>
-  </si>
-  <si>
-    <t>Processes are measured, refined and adapted to increase effectiveness and efficiency as appropriate.</t>
+Maturity</t>
+  </si>
+  <si>
+    <t>Target
+Maturity</t>
   </si>
 </sst>
 </file>
@@ -5106,7 +5106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE76021-C583-C141-A141-6E137A3C4EBB}">
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -5129,22 +5129,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5187,7 +5187,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C4" s="20" t="str">
         <f>Assessment!C4</f>
@@ -5223,7 +5223,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="20" t="str">
         <f>Assessment!C12</f>
@@ -5259,7 +5259,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="20" t="str">
         <f>Assessment!C20</f>
@@ -5295,7 +5295,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C7" s="20" t="str">
         <f>Assessment!C24</f>
@@ -5331,7 +5331,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="20" t="str">
         <f>Assessment!C36</f>
@@ -5367,7 +5367,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="20" t="str">
         <f>Assessment!C49</f>
@@ -5403,7 +5403,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="20" t="str">
         <f>Assessment!C53</f>
@@ -5439,7 +5439,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="20" t="str">
         <f>Assessment!C61</f>
@@ -5475,7 +5475,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="20" t="str">
         <f>Assessment!C64</f>
@@ -5511,7 +5511,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="20" t="str">
         <f>Assessment!C65</f>
@@ -5547,7 +5547,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="20" t="str">
         <f>Assessment!C69</f>
@@ -5583,7 +5583,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="20" t="str">
         <f>Assessment!C70</f>
@@ -5627,11 +5627,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8064FDB0-813E-D748-B598-423ECD0469B3}">
   <dimension ref="A1:T289"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20:E23"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5644,7 +5644,7 @@
     <col min="6" max="6" width="28.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="66.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="3" customWidth="1"/>
     <col min="11" max="14" width="12.6640625" style="5" customWidth="1"/>
     <col min="15" max="16" width="12.6640625" style="3" customWidth="1"/>
@@ -5675,31 +5675,31 @@
         <v>9</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="P1" s="17" t="s">
         <v>12</v>
@@ -5722,19 +5722,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>23</v>
@@ -5767,7 +5767,7 @@
         <v>17</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -5779,7 +5779,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="25"/>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>23</v>
@@ -5813,25 +5813,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="19">
         <v>0</v>
@@ -5863,13 +5863,13 @@
       <c r="D5" s="24"/>
       <c r="E5" s="26"/>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="J5" s="19">
         <v>0</v>
@@ -5901,13 +5901,13 @@
       <c r="D6" s="24"/>
       <c r="E6" s="26"/>
       <c r="F6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J6" s="19">
         <v>0</v>
@@ -5935,23 +5935,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="J7" s="19">
         <v>0</v>
@@ -5983,13 +5983,13 @@
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8" s="19">
         <v>0</v>
@@ -6021,13 +6021,13 @@
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="J9" s="19">
         <v>0</v>
@@ -6060,16 +6060,16 @@
         <v>6</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J10" s="19">
         <v>0</v>
@@ -6099,19 +6099,19 @@
       <c r="B11" s="30"/>
       <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="J11" s="19">
         <v>0</v>
@@ -6139,25 +6139,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="F12" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" s="19">
         <v>0</v>
@@ -6189,13 +6189,13 @@
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="19">
         <v>0</v>
@@ -6227,13 +6227,13 @@
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" s="19">
         <v>0</v>
@@ -6265,13 +6265,13 @@
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
       <c r="F15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="J15" s="19">
         <v>0</v>
@@ -6303,13 +6303,13 @@
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
       <c r="F16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="J16" s="19">
         <v>0</v>
@@ -6341,13 +6341,13 @@
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
       <c r="F17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="J17" s="19">
         <v>0</v>
@@ -6379,13 +6379,13 @@
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
       <c r="F18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="J18" s="19">
         <v>0</v>
@@ -6417,13 +6417,13 @@
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
       <c r="F19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="J19" s="19">
         <v>0</v>
@@ -6451,25 +6451,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="E20" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>84</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" s="19">
         <v>0</v>
@@ -6501,13 +6501,13 @@
       <c r="D21" s="24"/>
       <c r="E21" s="29"/>
       <c r="F21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="H21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" s="19">
         <v>0</v>
@@ -6539,13 +6539,13 @@
       <c r="D22" s="24"/>
       <c r="E22" s="29"/>
       <c r="F22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" s="19">
         <v>0</v>
@@ -6577,13 +6577,13 @@
       <c r="D23" s="24"/>
       <c r="E23" s="29"/>
       <c r="F23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23" s="19">
         <v>0</v>
@@ -6611,25 +6611,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="E24" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="F24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="J24" s="19">
         <v>0</v>
@@ -6661,13 +6661,13 @@
       <c r="D25" s="24"/>
       <c r="E25" s="29"/>
       <c r="F25" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J25" s="19">
         <v>0</v>
@@ -6697,19 +6697,19 @@
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="F26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="J26" s="19">
         <v>0</v>
@@ -6741,13 +6741,13 @@
       <c r="D27" s="24"/>
       <c r="E27" s="29"/>
       <c r="F27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J27" s="19">
         <v>0</v>
@@ -6779,13 +6779,13 @@
       <c r="D28" s="24"/>
       <c r="E28" s="29"/>
       <c r="F28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J28" s="19">
         <v>0</v>
@@ -6815,19 +6815,19 @@
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="F29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="J29" s="19">
         <v>0</v>
@@ -6859,13 +6859,13 @@
       <c r="D30" s="24"/>
       <c r="E30" s="29"/>
       <c r="F30" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J30" s="19">
         <v>0</v>
@@ -6895,19 +6895,19 @@
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="F31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="J31" s="19">
         <v>0</v>
@@ -6939,13 +6939,13 @@
       <c r="D32" s="24"/>
       <c r="E32" s="29"/>
       <c r="F32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J32" s="19">
         <v>0</v>
@@ -6977,13 +6977,13 @@
       <c r="D33" s="24"/>
       <c r="E33" s="29"/>
       <c r="F33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J33" s="19">
         <v>0</v>
@@ -7015,13 +7015,13 @@
       <c r="D34" s="24"/>
       <c r="E34" s="29"/>
       <c r="F34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="H34" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J34" s="19">
         <v>0</v>
@@ -7053,13 +7053,13 @@
       <c r="D35" s="24"/>
       <c r="E35" s="29"/>
       <c r="F35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J35" s="19">
         <v>0</v>
@@ -7087,25 +7087,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="D36" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="E36" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>95</v>
-      </c>
       <c r="F36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="J36" s="19">
         <v>0</v>
@@ -7137,13 +7137,13 @@
       <c r="D37" s="24"/>
       <c r="E37" s="29"/>
       <c r="F37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="J37" s="19">
         <v>0</v>
@@ -7175,13 +7175,13 @@
       <c r="D38" s="24"/>
       <c r="E38" s="29"/>
       <c r="F38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="J38" s="19">
         <v>0</v>
@@ -7213,13 +7213,13 @@
       <c r="D39" s="24"/>
       <c r="E39" s="29"/>
       <c r="F39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="J39" s="19">
         <v>0</v>
@@ -7251,13 +7251,13 @@
       <c r="D40" s="24"/>
       <c r="E40" s="29"/>
       <c r="F40" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J40" s="19">
         <v>0</v>
@@ -7289,13 +7289,13 @@
       <c r="D41" s="24"/>
       <c r="E41" s="29"/>
       <c r="F41" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J41" s="19">
         <v>0</v>
@@ -7327,13 +7327,13 @@
       <c r="D42" s="24"/>
       <c r="E42" s="29"/>
       <c r="F42" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J42" s="19">
         <v>0</v>
@@ -7363,19 +7363,19 @@
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
       <c r="D43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="F43" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="J43" s="19">
         <v>0</v>
@@ -7405,19 +7405,19 @@
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="29" t="s">
-        <v>141</v>
-      </c>
       <c r="F44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="J44" s="19">
         <v>0</v>
@@ -7449,13 +7449,13 @@
       <c r="D45" s="24"/>
       <c r="E45" s="29"/>
       <c r="F45" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J45" s="19">
         <v>0</v>
@@ -7487,13 +7487,13 @@
       <c r="D46" s="24"/>
       <c r="E46" s="29"/>
       <c r="F46" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J46" s="19">
         <v>0</v>
@@ -7525,13 +7525,13 @@
       <c r="D47" s="24"/>
       <c r="E47" s="29"/>
       <c r="F47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="J47" s="19">
         <v>0</v>
@@ -7563,13 +7563,13 @@
       <c r="D48" s="24"/>
       <c r="E48" s="29"/>
       <c r="F48" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J48" s="19">
         <v>0</v>
@@ -7597,25 +7597,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="D49" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="29" t="s">
+      <c r="F49" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="J49" s="19">
         <v>0</v>
@@ -7647,13 +7647,13 @@
       <c r="D50" s="24"/>
       <c r="E50" s="29"/>
       <c r="F50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="H50" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J50" s="19">
         <v>0</v>
@@ -7685,13 +7685,13 @@
       <c r="D51" s="24"/>
       <c r="E51" s="29"/>
       <c r="F51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="H51" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J51" s="19">
         <v>0</v>
@@ -7723,13 +7723,13 @@
       <c r="D52" s="24"/>
       <c r="E52" s="29"/>
       <c r="F52" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="H52" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J52" s="19">
         <v>0</v>
@@ -7758,22 +7758,22 @@
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D53" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="29" t="s">
+      <c r="F53" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="J53" s="19">
         <v>0</v>
@@ -7805,13 +7805,13 @@
       <c r="D54" s="24"/>
       <c r="E54" s="29"/>
       <c r="F54" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J54" s="19">
         <v>0</v>
@@ -7843,13 +7843,13 @@
       <c r="D55" s="24"/>
       <c r="E55" s="29"/>
       <c r="F55" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G55" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="J55" s="19">
         <v>0</v>
@@ -7881,13 +7881,13 @@
       <c r="D56" s="24"/>
       <c r="E56" s="29"/>
       <c r="F56" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="J56" s="19">
         <v>0</v>
@@ -7919,13 +7919,13 @@
       <c r="D57" s="24"/>
       <c r="E57" s="29"/>
       <c r="F57" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="J57" s="19">
         <v>0</v>
@@ -7957,13 +7957,13 @@
       <c r="D58" s="24"/>
       <c r="E58" s="29"/>
       <c r="F58" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="H58" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J58" s="19">
         <v>0</v>
@@ -7995,13 +7995,13 @@
       <c r="D59" s="24"/>
       <c r="E59" s="29"/>
       <c r="F59" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J59" s="19">
         <v>0</v>
@@ -8033,13 +8033,13 @@
       <c r="D60" s="24"/>
       <c r="E60" s="29"/>
       <c r="F60" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J60" s="19">
         <v>0</v>
@@ -8068,22 +8068,22 @@
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="E61" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="F61" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="J61" s="19">
         <v>0</v>
@@ -8115,13 +8115,13 @@
       <c r="D62" s="24"/>
       <c r="E62" s="29"/>
       <c r="F62" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="H62" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J62" s="19">
         <v>0</v>
@@ -8153,13 +8153,13 @@
       <c r="D63" s="24"/>
       <c r="E63" s="29"/>
       <c r="F63" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J63" s="19">
         <v>0</v>
@@ -8188,22 +8188,22 @@
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="J64" s="19">
         <v>0</v>
@@ -8232,22 +8232,22 @@
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" s="29" t="s">
+      <c r="F65" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="J65" s="19">
         <v>0</v>
@@ -8279,13 +8279,13 @@
       <c r="D66" s="24"/>
       <c r="E66" s="29"/>
       <c r="F66" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J66" s="19">
         <v>0</v>
@@ -8317,13 +8317,13 @@
       <c r="D67" s="24"/>
       <c r="E67" s="29"/>
       <c r="F67" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J67" s="19">
         <v>0</v>
@@ -8355,13 +8355,13 @@
       <c r="D68" s="24"/>
       <c r="E68" s="29"/>
       <c r="F68" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="H68" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J68" s="19">
         <v>0</v>
@@ -8390,22 +8390,22 @@
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="G69" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J69" s="19">
         <v>0</v>
@@ -8433,25 +8433,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="D70" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E70" s="29" t="s">
+      <c r="F70" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="H70" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J70" s="19">
         <v>0</v>
@@ -8483,13 +8483,13 @@
       <c r="D71" s="24"/>
       <c r="E71" s="29"/>
       <c r="F71" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="J71" s="19">
         <v>0</v>
@@ -8521,13 +8521,13 @@
       <c r="D72" s="24"/>
       <c r="E72" s="29"/>
       <c r="F72" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J72" s="19">
         <v>0</v>
@@ -9278,7 +9278,7 @@
       <formula>NOT(ISERROR(SEARCH("0",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:L72 N2:O72 M2:M11 M13:M72 M12" xr:uid="{FF8CBAC9-657A-AC4C-AC1C-F923646828AB}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
@@ -9325,10 +9325,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -9339,7 +9339,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9350,7 +9350,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9358,10 +9358,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -9369,10 +9369,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -9380,10 +9380,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
